--- a/biology/Botanique/Jonafree/Jonafree.xlsx
+++ b/biology/Botanique/Jonafree/Jonafree.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonafree est le nom d'un cultivar de pommier domestique. Son nom de test est Coop22[1]. Aussi répertoriée PRI 2016-100.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonafree est le nom d'un cultivar de pommier domestique. Son nom de test est Coop22. Aussi répertoriée PRI 2016-100.
 Nom botanique : Malus domestica Borkh Jonafree.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar issu de la recherche par des universités américaines (PRI).
 Planté en 1995 dans un verger de la station d'agriculture expérimentale d'Urbana en Illinois (USA).
@@ -544,7 +558,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar issu du croisement : PRI 855-102 (Golden Delicious résistante x Jonathan) x New Jersey 31.
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété ressemble à Jonathan mais en plus résistante aux maladies avec un fruit un peu moins acide.
 </t>
@@ -606,7 +624,9 @@
           <t>Susceptibilités et résistances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tavelure : très résistant, immunisé contre les races communes de tavelure.
 Mildiou : modérément susceptible
@@ -638,9 +658,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété de substitution à Jonathan[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété de substitution à Jonathan.
 </t>
         </is>
       </c>
